--- a/src/python/comp230/openpyxl_ex.xlsx
+++ b/src/python/comp230/openpyxl_ex.xlsx
@@ -356,12 +356,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -371,37 +371,37 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
